--- a/학습자료/단답형/국어_복습_속담.xlsx
+++ b/학습자료/단답형/국어_복습_속담.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,117 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>가난한 집 족보 자랑하기다</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>실속은 없으면서 허세만 부리다</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>사또 덕분에 나팔 분다</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>남의 덕으로 분에 넘치는 행세를 한다</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>아쉬운 감 유월부터 한다</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>하늘 보고 손가락질한다(주먹질한다)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>불감청이언정 고소원이라</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_속담.xlsx
+++ b/학습자료/단답형/국어_복습_속담.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,6 +654,29 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>가랑이가 찟어지다</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
+2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_속담.xlsx
+++ b/학습자료/단답형/국어_복습_속담.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>구분</t>
         </is>
       </c>
@@ -468,11 +463,6 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2일차</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>속담</t>
         </is>
       </c>
@@ -490,11 +480,6 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2일차</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>속담</t>
         </is>
       </c>
@@ -512,11 +497,6 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2일차</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>속담</t>
         </is>
       </c>
@@ -534,11 +514,6 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2일차</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>속담</t>
         </is>
       </c>
@@ -556,11 +531,6 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>속담</t>
         </is>
       </c>
@@ -578,11 +548,6 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>속담</t>
         </is>
       </c>
@@ -600,11 +565,6 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>속담</t>
         </is>
       </c>
@@ -623,11 +583,6 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>속담</t>
         </is>
       </c>
@@ -645,11 +600,6 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>속담</t>
         </is>
       </c>
@@ -662,16 +612,197 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
-2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
+          <t>몹시 가난하여 살림살이가 궁색하다,  자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>동풍 안개 속에 수수 잎 꼬이듯</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>심술이 사납고 성질이 순순하지 못함</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>동풍에 원두한의 탄식</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>동풍에 곡식이 병난다</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>패랭이에 숟가락 꽂고 산다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>아주 가난하여 떠돌아다니며 얻어먹을 정도임을 비유적으로 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>태산 명동에 서일필</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>터진 방앗공이에 보리알 끼듯 하였다</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>보리누름까지 세배한다</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>형식적인 인사 차림이 너무 과함을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>말 같지 않은 말은 귀가 없다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>이치에 맞지 아니한 말은 못 들은 척한다는 말.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>남의 말이라면 쌍지팡이 짚고 나선다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>남에게 시비를 잘 걸고 나서는 사람을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>말 안 하면 귀신도 모른다</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>마음속으로만 애태울 것이 아니라 시원스럽게 말을 하여야 한다는 말.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>남의 말도 석 달</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>소문은 시일이 지나면 흐지부지 없어지고 만다는 말.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>속담</t>
         </is>

--- a/학습자료/단답형/국어_복습_속담.xlsx
+++ b/학습자료/단답형/국어_복습_속담.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,6 +851,24 @@
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>조금이라도 이용 가치가 있을까 하여 보잘것없는 것을 두고두고 되풀이하여 이용함</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">노루 때린 막대기 세 번이나 국 끓여 먹는다 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_속담.xlsx
+++ b/학습자료/단답형/국어_복습_속담.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
